--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\from_\CWT-Thread-Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598767F8-C8AF-463D-8797-76F69638DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7562D8-6EF0-46F3-9F6B-BC91CD077609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TVS2102" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>NO.</t>
   </si>
@@ -231,15 +231,6 @@
     <t>Pice *x</t>
   </si>
   <si>
-    <t xml:space="preserve"> - เซ็นเซอร์ตรวจจับหลอดด้าย 2 ตัว</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - ไฟแสดงสถานะ 4 ดวง (2 เขียว, 2 แดง พร้อม Alarm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - รองรับโหมด Bypass สำหรับกรณีพิเศษ</t>
-  </si>
-  <si>
     <t>TVS2102</t>
   </si>
   <si>
@@ -255,15 +246,6 @@
     <t>ของด้าย (QR-Code)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - เอาต์พุต 1 ช่อง  (Single Relay NO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - อ่าน QR Code แบบคู่ (2 ตัว)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - ระบบ Master การ์ด RFID </t>
-  </si>
-  <si>
     <t xml:space="preserve">Thread Verification </t>
   </si>
   <si>
@@ -280,9 +262,6 @@
   </si>
   <si>
     <t>Bypass Security: มีโหมด Bypass สำหรับกรณีฉุกเฉินหรือซ่อมบำรุง โดยต้องใช้สิทธิ์ Master Card หรือคำสั่งเฉพาะ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Dual Spool Verification: รองรับการตรวจสอบด้ายพร้อมกัน 2 หลอด</t>
   </si>
   <si>
     <t>Model</t>
@@ -325,9 +304,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="&quot; - &quot;\ @"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -540,7 +520,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,6 +682,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1066,13 +1055,13 @@
   <sheetData>
     <row r="1" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>62</v>
@@ -1084,13 +1073,13 @@
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>81</v>
+      <c r="D2" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="44">
         <v>17000</v>
@@ -1100,15 +1089,15 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
       <c r="O2" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="46"/>
       <c r="C3" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="48"/>
@@ -1117,15 +1106,15 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="O3" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="48"/>
@@ -1134,16 +1123,16 @@
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="O4" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
       <c r="C5" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -1151,15 +1140,13 @@
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="O5" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
-        <v>64</v>
-      </c>
+      <c r="D6" s="56"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
@@ -1169,9 +1156,7 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="D7" s="56"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="49"/>
@@ -1181,9 +1166,7 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>66</v>
-      </c>
+      <c r="D8" s="56"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="49"/>
@@ -1193,7 +1176,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
       <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="54"/>
@@ -2722,85 +2705,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4683EB-D841-4308-BB4E-FB01603BE49F}">
   <dimension ref="J3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="10:12" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="10:12" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="10:12" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="10:12" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="10:12" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\from_\CWT-Thread-Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7562D8-6EF0-46F3-9F6B-BC91CD077609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD1C75-F169-4894-8F2A-7EEDDEB5BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TVS2102" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot; - &quot;\ @"/>
+    <numFmt numFmtId="164" formatCode="&quot; - &quot;\ @"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -520,7 +520,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,43 +600,76 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,53 +678,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1027,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1063,125 +1054,125 @@
       <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="50">
         <v>17000</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="O2" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="O3" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="O4" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="O5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H10" s="5">
@@ -1213,7 +1204,7 @@
       <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1227,7 +1218,7 @@
       <c r="R11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="39"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
@@ -1247,27 +1238,27 @@
         <v>640.57000000000005</v>
       </c>
       <c r="G12" s="21">
-        <f>F12*$E12</f>
+        <f t="shared" ref="G12:G39" si="0">F12*$E12</f>
         <v>1281.1400000000001</v>
       </c>
       <c r="H12" s="21">
-        <f>(F12*$H$10)+F12</f>
+        <f t="shared" ref="H12:H39" si="1">(F12*$H$10)+F12</f>
         <v>1281.1400000000001</v>
       </c>
       <c r="I12" s="21">
-        <f>H12*$E12</f>
+        <f t="shared" ref="I12:I39" si="2">H12*$E12</f>
         <v>2562.2800000000002</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="32">
+      <c r="J12" s="27"/>
+      <c r="K12" s="31">
         <f>G12/$G$41</f>
         <v>0.35404006488643491</v>
       </c>
-      <c r="L12" s="33">
-        <f>K12*$E$2</f>
+      <c r="L12" s="32">
+        <f t="shared" ref="L12:L39" si="3">K12*$E$2</f>
         <v>6018.6811030693934</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="33"/>
       <c r="Q12" s="9">
         <v>6405.66</v>
       </c>
@@ -1281,7 +1272,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
-        <f t="shared" ref="B13:B39" si="0">ROW()-4</f>
+        <f t="shared" ref="B13:B39" si="4">ROW()-4</f>
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1297,27 +1288,27 @@
         <v>128.19999999999999</v>
       </c>
       <c r="G13" s="22">
-        <f>F13*$E13</f>
+        <f t="shared" si="0"/>
         <v>128.19999999999999</v>
       </c>
       <c r="H13" s="22">
-        <f>(F13*$H$10)+F13</f>
+        <f t="shared" si="1"/>
         <v>256.39999999999998</v>
       </c>
       <c r="I13" s="22">
-        <f>H13*$E13</f>
+        <f t="shared" si="2"/>
         <v>256.39999999999998</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29">
-        <f t="shared" ref="K13:K39" si="1">G13/$G$41</f>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28">
+        <f t="shared" ref="K13:K39" si="5">G13/$G$41</f>
         <v>3.5427772388998045E-2</v>
       </c>
       <c r="L13" s="22">
-        <f>K13*$E$2</f>
+        <f t="shared" si="3"/>
         <v>602.27213061296675</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="34"/>
       <c r="Q13" s="12">
         <v>1281.98</v>
       </c>
@@ -1325,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" ref="S13:S14" si="2">Q13/R13</f>
+        <f t="shared" ref="S13:S14" si="6">Q13/R13</f>
         <v>128.19800000000001</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1347,27 +1338,27 @@
         <v>8.35</v>
       </c>
       <c r="G14" s="22">
-        <f>F14*$E14</f>
+        <f t="shared" si="0"/>
         <v>41.75</v>
       </c>
       <c r="H14" s="22">
-        <f>(F14*$H$10)+F14</f>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
       <c r="I14" s="22">
-        <f>H14*$E14</f>
+        <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29">
-        <f t="shared" si="1"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28">
+        <f t="shared" si="5"/>
         <v>1.1537515579100377E-2</v>
       </c>
       <c r="L14" s="22">
-        <f>K14*$E$2</f>
+        <f t="shared" si="3"/>
         <v>196.1377648447064</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="Q14" s="4">
@@ -1377,13 +1368,13 @@
         <v>50</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.35</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1399,27 +1390,27 @@
         <v>4.58</v>
       </c>
       <c r="G15" s="22">
-        <f>F15*$E15</f>
+        <f t="shared" si="0"/>
         <v>4.58</v>
       </c>
       <c r="H15" s="22">
-        <f>(F15*$H$10)+F15</f>
+        <f t="shared" si="1"/>
         <v>9.16</v>
       </c>
       <c r="I15" s="22">
-        <f>H15*$E15</f>
+        <f t="shared" si="2"/>
         <v>9.16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29">
-        <f t="shared" si="1"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28">
+        <f t="shared" si="5"/>
         <v>1.265672367719275E-3</v>
       </c>
       <c r="L15" s="22">
-        <f>K15*$E$2</f>
+        <f t="shared" si="3"/>
         <v>21.516430251227675</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="34" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="4">
@@ -1436,7 +1427,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1452,27 +1443,27 @@
         <v>99</v>
       </c>
       <c r="G16" s="22">
-        <f>F16*$E16</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="H16" s="22">
-        <f>(F16*$H$10)+F16</f>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="I16" s="22">
-        <f>H16*$E16</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29">
-        <f t="shared" si="1"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28">
+        <f t="shared" si="5"/>
         <v>2.7358420175591314E-2</v>
       </c>
       <c r="L16" s="22">
-        <f>K16*$E$2</f>
+        <f t="shared" si="3"/>
         <v>465.09314298505234</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="34" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="4">
@@ -1488,7 +1479,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1504,27 +1495,27 @@
         <v>45.8</v>
       </c>
       <c r="G17" s="22">
-        <f>F17*$E17</f>
+        <f t="shared" si="0"/>
         <v>45.8</v>
       </c>
       <c r="H17" s="22">
-        <f>(F17*$H$10)+F17</f>
+        <f t="shared" si="1"/>
         <v>91.6</v>
       </c>
       <c r="I17" s="22">
-        <f>H17*$E17</f>
+        <f t="shared" si="2"/>
         <v>91.6</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29">
-        <f t="shared" si="1"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28">
+        <f t="shared" si="5"/>
         <v>1.2656723677192748E-2</v>
       </c>
       <c r="L17" s="22">
-        <f>K17*$E$2</f>
+        <f t="shared" si="3"/>
         <v>215.16430251227672</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="34" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="4">
@@ -1534,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="S17" si="3">Q17/R17</f>
+        <f t="shared" ref="S17" si="7">Q17/R17</f>
         <v>45.8</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1556,31 +1547,31 @@
         <v>9</v>
       </c>
       <c r="G18" s="22">
-        <f>F18*$E18</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H18" s="22">
-        <f>(F18*$H$10)+F18</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I18" s="22">
-        <f>H18*$E18</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28">
+        <f t="shared" si="5"/>
         <v>4.9742582137438755E-3</v>
       </c>
       <c r="L18" s="22">
-        <f>K18*$E$2</f>
+        <f t="shared" si="3"/>
         <v>84.562389633645878</v>
       </c>
-      <c r="M18" s="35"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1596,31 +1587,31 @@
         <v>29</v>
       </c>
       <c r="G19" s="22">
-        <f>F19*$E19</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="H19" s="22">
-        <f>(F19*$H$10)+F19</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="I19" s="22">
-        <f>H19*$E19</f>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29">
-        <f t="shared" si="1"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28">
+        <f t="shared" si="5"/>
         <v>1.6028165355396931E-2</v>
       </c>
       <c r="L19" s="22">
-        <f>K19*$E$2</f>
+        <f t="shared" si="3"/>
         <v>272.4788110417478</v>
       </c>
-      <c r="M19" s="35"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1636,29 +1627,29 @@
         <v>0.24</v>
       </c>
       <c r="G20" s="22">
-        <f>F20*$E20</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="H20" s="22">
-        <f>(F20*$H$10)+F20</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="I20" s="22">
-        <f>H20*$E20</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28">
+        <f t="shared" si="5"/>
         <v>1.3264688569983668E-4</v>
       </c>
       <c r="L20" s="22">
-        <f>K20*$E$2</f>
+        <f t="shared" si="3"/>
         <v>2.2549970568972237</v>
       </c>
-      <c r="M20" s="35"/>
+      <c r="M20" s="34"/>
       <c r="P20" s="13">
-        <f t="shared" ref="P20:P28" si="4">Q20*35</f>
+        <f t="shared" ref="P20:P28" si="8">Q20*35</f>
         <v>9.4500000000000011</v>
       </c>
       <c r="Q20" s="14">
@@ -1674,7 +1665,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1690,29 +1681,29 @@
         <v>29.98</v>
       </c>
       <c r="G21" s="22">
-        <f>F21*$E21</f>
+        <f t="shared" si="0"/>
         <v>29.98</v>
       </c>
       <c r="H21" s="22">
-        <f>(F21*$H$10)+F21</f>
+        <f t="shared" si="1"/>
         <v>59.96</v>
       </c>
       <c r="I21" s="22">
-        <f>H21*$E21</f>
+        <f t="shared" si="2"/>
         <v>59.96</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28">
+        <f t="shared" si="5"/>
         <v>8.2849034026689656E-3</v>
       </c>
       <c r="L21" s="22">
-        <f>K21*$E$2</f>
+        <f t="shared" si="3"/>
         <v>140.84335784537242</v>
       </c>
-      <c r="M21" s="35"/>
+      <c r="M21" s="34"/>
       <c r="P21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>599.54999999999995</v>
       </c>
       <c r="Q21" s="14">
@@ -1723,13 +1714,13 @@
         <v>20</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" ref="S21:S22" si="5">P21/R21</f>
+        <f t="shared" ref="S21:S22" si="9">P21/R21</f>
         <v>29.977499999999999</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1745,31 +1736,31 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G22" s="22">
-        <f>F22*$E22</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="H22" s="22">
-        <f>(F22*$H$10)+F22</f>
+        <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="I22" s="22">
-        <f>H22*$E22</f>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28">
+        <f t="shared" si="5"/>
         <v>1.5475469998314279E-4</v>
       </c>
       <c r="L22" s="22">
-        <f>K22*$E$2</f>
+        <f t="shared" si="3"/>
         <v>2.6308298997134276</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22.400000000000002</v>
       </c>
       <c r="Q22" s="14">
@@ -1780,13 +1771,13 @@
         <v>80</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1802,27 +1793,27 @@
         <v>1.46</v>
       </c>
       <c r="G23" s="22">
-        <f>F23*$E23</f>
+        <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
       <c r="H23" s="22">
-        <f>(F23*$H$10)+F23</f>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
       <c r="I23" s="22">
-        <f>H23*$E23</f>
+        <f t="shared" si="2"/>
         <v>5.84</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29">
-        <f t="shared" si="1"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28">
+        <f t="shared" si="5"/>
         <v>8.0693522134067306E-4</v>
       </c>
       <c r="L23" s="22">
-        <f>K23*$E$2</f>
+        <f t="shared" si="3"/>
         <v>13.717898762791442</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P23" s="13"/>
@@ -1833,13 +1824,13 @@
         <v>50</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ref="S23" si="6">Q23/R23</f>
+        <f t="shared" ref="S23" si="10">Q23/R23</f>
         <v>1.46</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -1855,34 +1846,34 @@
         <v>1.46</v>
       </c>
       <c r="G24" s="22">
-        <f>F24*$E24</f>
+        <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
       <c r="H24" s="22">
-        <f>(F24*$H$10)+F24</f>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
       <c r="I24" s="22">
-        <f>H24*$E24</f>
+        <f t="shared" si="2"/>
         <v>5.84</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28">
+        <f t="shared" si="5"/>
         <v>8.0693522134067306E-4</v>
       </c>
       <c r="L24" s="22">
-        <f>K24*$E$2</f>
+        <f t="shared" si="3"/>
         <v>13.717898762791442</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1898,31 +1889,31 @@
         <v>3.49</v>
       </c>
       <c r="G25" s="22">
-        <f>F25*$E25</f>
+        <f t="shared" si="0"/>
         <v>24.43</v>
       </c>
       <c r="H25" s="22">
-        <f>(F25*$H$10)+F25</f>
+        <f t="shared" si="1"/>
         <v>6.98</v>
       </c>
       <c r="I25" s="22">
-        <f>H25*$E25</f>
+        <f t="shared" si="2"/>
         <v>48.86</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28">
+        <f t="shared" si="5"/>
         <v>6.7511737867646041E-3</v>
       </c>
       <c r="L25" s="22">
-        <f>K25*$E$2</f>
+        <f t="shared" si="3"/>
         <v>114.76995437499826</v>
       </c>
-      <c r="M25" s="35" t="s">
+      <c r="M25" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>348.6</v>
       </c>
       <c r="Q25" s="14">
@@ -1932,13 +1923,13 @@
         <v>100</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" ref="S25:S26" si="7">P25/R25</f>
+        <f t="shared" ref="S25:S26" si="11">P25/R25</f>
         <v>3.4860000000000002</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -1954,27 +1945,27 @@
         <v>35.94</v>
       </c>
       <c r="G26" s="22">
-        <f>F26*$E26</f>
+        <f t="shared" si="0"/>
         <v>35.94</v>
       </c>
       <c r="H26" s="22">
-        <f>(F26*$H$10)+F26</f>
+        <f t="shared" si="1"/>
         <v>71.88</v>
       </c>
       <c r="I26" s="22">
-        <f>H26*$E26</f>
+        <f t="shared" si="2"/>
         <v>71.88</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28">
+        <f t="shared" si="5"/>
         <v>9.9319355667752702E-3</v>
       </c>
       <c r="L26" s="22">
-        <f>K26*$E$2</f>
+        <f t="shared" si="3"/>
         <v>168.84290463517959</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="13">
@@ -1987,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>35.937333333333328</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2009,34 +2000,34 @@
         <v>3</v>
       </c>
       <c r="G27" s="22">
-        <f>F27*$E27</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H27" s="22">
-        <f>(F27*$H$10)+F27</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I27" s="22">
-        <f>H27*$E27</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29">
-        <f t="shared" si="1"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28">
+        <f t="shared" si="5"/>
         <v>4.9742582137438755E-3</v>
       </c>
       <c r="L27" s="22">
-        <f>K27*$E$2</f>
+        <f t="shared" si="3"/>
         <v>84.562389633645878</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P27" s="13"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2052,31 +2043,31 @@
         <v>0.4</v>
       </c>
       <c r="G28" s="22">
-        <f>F28*$E28</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H28" s="22">
-        <f>(F28*$H$10)+F28</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="I28" s="22">
-        <f>H28*$E28</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29">
-        <f t="shared" si="1"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28">
+        <f t="shared" si="5"/>
         <v>1.1053907141653057E-4</v>
       </c>
       <c r="L28" s="22">
-        <f>K28*$E$2</f>
+        <f t="shared" si="3"/>
         <v>1.8791642140810199</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.100000000000001</v>
       </c>
       <c r="Q28" s="14">
@@ -2086,13 +2077,13 @@
         <v>40</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" ref="S28:S29" si="8">P28/R28</f>
+        <f t="shared" ref="S28:S29" si="12">P28/R28</f>
         <v>0.40250000000000002</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2108,27 +2099,27 @@
         <v>12</v>
       </c>
       <c r="G29" s="22">
-        <f>F29*$E29</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H29" s="22">
-        <f>(F29*$H$10)+F29</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I29" s="22">
-        <f>H29*$E29</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29">
-        <f t="shared" si="1"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28">
+        <f t="shared" si="5"/>
         <v>3.316172142495917E-3</v>
       </c>
       <c r="L29" s="22">
-        <f>K29*$E$2</f>
+        <f t="shared" si="3"/>
         <v>56.37492642243059</v>
       </c>
-      <c r="M29" s="35"/>
+      <c r="M29" s="34"/>
       <c r="P29" s="13">
         <f>Q29*35</f>
         <v>46.2</v>
@@ -2140,13 +2131,13 @@
         <v>20</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.31</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -2162,33 +2153,33 @@
         <v>55</v>
       </c>
       <c r="G30" s="22">
-        <f>F30*$E30</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="H30" s="22">
-        <f>(F30*$H$10)+F30</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="I30" s="22">
-        <f>H30*$E30</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29">
-        <f t="shared" si="1"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28">
+        <f t="shared" si="5"/>
         <v>1.5199122319772952E-2</v>
       </c>
       <c r="L30" s="22">
-        <f>K30*$E$2</f>
+        <f t="shared" si="3"/>
         <v>258.38507943614019</v>
       </c>
-      <c r="M30" s="35"/>
+      <c r="M30" s="34"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -2204,27 +2195,27 @@
         <v>27.76</v>
       </c>
       <c r="G31" s="22">
-        <f>F31*$E31</f>
+        <f t="shared" si="0"/>
         <v>27.76</v>
       </c>
       <c r="H31" s="22">
-        <f>(F31*$H$10)+F31</f>
+        <f t="shared" si="1"/>
         <v>55.52</v>
       </c>
       <c r="I31" s="22">
-        <f>H31*$E31</f>
+        <f t="shared" si="2"/>
         <v>55.52</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29">
-        <f t="shared" si="1"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28">
+        <f t="shared" si="5"/>
         <v>7.6714115563072212E-3</v>
       </c>
       <c r="L31" s="22">
-        <f>K31*$E$2</f>
+        <f t="shared" si="3"/>
         <v>130.41399645722277</v>
       </c>
-      <c r="M31" s="35"/>
+      <c r="M31" s="34"/>
       <c r="P31" s="13">
         <v>694</v>
       </c>
@@ -2233,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" ref="S31:S32" si="9">P31/R31</f>
+        <f t="shared" ref="S31:S32" si="13">P31/R31</f>
         <v>27.76</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2255,27 +2246,27 @@
         <v>2.77</v>
       </c>
       <c r="G32" s="22">
-        <f>F32*$E32</f>
+        <f t="shared" si="0"/>
         <v>2.77</v>
       </c>
       <c r="H32" s="22">
-        <f>(F32*$H$10)+F32</f>
+        <f t="shared" si="1"/>
         <v>5.54</v>
       </c>
       <c r="I32" s="22">
-        <f>H32*$E32</f>
+        <f t="shared" si="2"/>
         <v>5.54</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29">
-        <f t="shared" si="1"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28">
+        <f t="shared" si="5"/>
         <v>7.6548306955947414E-4</v>
       </c>
       <c r="L32" s="22">
-        <f>K32*$E$2</f>
+        <f t="shared" si="3"/>
         <v>13.01321218251106</v>
       </c>
-      <c r="M32" s="35"/>
+      <c r="M32" s="34"/>
       <c r="P32" s="13">
         <v>83</v>
       </c>
@@ -2284,13 +2275,13 @@
         <v>30</v>
       </c>
       <c r="S32" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -2304,31 +2295,31 @@
         <v>20</v>
       </c>
       <c r="G33" s="22">
-        <f>F33*$E33</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H33" s="22">
-        <f>(F33*$H$10)+F33</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="I33" s="22">
-        <f>H33*$E33</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29">
-        <f t="shared" si="1"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28">
+        <f t="shared" si="5"/>
         <v>5.5269535708265278E-3</v>
       </c>
       <c r="L33" s="22">
-        <f>K33*$E$2</f>
+        <f t="shared" si="3"/>
         <v>93.95821070405097</v>
       </c>
-      <c r="M33" s="35"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -2342,33 +2333,33 @@
         <v>20</v>
       </c>
       <c r="G34" s="22">
-        <f>F34*$E34</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H34" s="22">
-        <f>(F34*$H$10)+F34</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="I34" s="22">
-        <f>H34*$E34</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29">
-        <f t="shared" si="1"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28">
+        <f t="shared" si="5"/>
         <v>5.5269535708265278E-3</v>
       </c>
       <c r="L34" s="22">
-        <f>K34*$E$2</f>
+        <f t="shared" si="3"/>
         <v>93.95821070405097</v>
       </c>
-      <c r="M34" s="35" t="s">
+      <c r="M34" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2382,31 +2373,31 @@
         <v>700</v>
       </c>
       <c r="G35" s="22">
-        <f>F35*$E35</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="H35" s="22">
-        <f>(F35*$H$10)+F35</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="I35" s="22">
-        <f>H35*$E35</f>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29">
-        <f t="shared" si="1"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28">
+        <f t="shared" si="5"/>
         <v>0.1934433749789285</v>
       </c>
       <c r="L35" s="22">
-        <f>K35*$E$2</f>
+        <f t="shared" si="3"/>
         <v>3288.5373746417845</v>
       </c>
-      <c r="M35" s="35"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -2420,31 +2411,31 @@
         <v>500</v>
       </c>
       <c r="G36" s="22">
-        <f>F36*$E36</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="H36" s="22">
-        <f>(F36*$H$10)+F36</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="I36" s="22">
-        <f>H36*$E36</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29">
-        <f t="shared" si="1"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28">
+        <f t="shared" si="5"/>
         <v>0.13817383927066321</v>
       </c>
       <c r="L36" s="22">
-        <f>K36*$E$2</f>
+        <f t="shared" si="3"/>
         <v>2348.9552676012745</v>
       </c>
-      <c r="M36" s="35"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -2460,27 +2451,27 @@
         <v>340</v>
       </c>
       <c r="G37" s="22">
-        <f>F37*$E37</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="H37" s="22">
-        <f>(F37*$H$10)+F37</f>
+        <f t="shared" si="1"/>
         <v>680</v>
       </c>
       <c r="I37" s="22">
-        <f>H37*$E37</f>
+        <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29">
-        <f t="shared" si="1"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="28">
+        <f t="shared" si="5"/>
         <v>9.3958210704050985E-2</v>
       </c>
       <c r="L37" s="22">
-        <f>K37*$E$2</f>
+        <f t="shared" si="3"/>
         <v>1597.2895819688667</v>
       </c>
-      <c r="M37" s="35"/>
+      <c r="M37" s="34"/>
       <c r="P37" s="13">
         <f>+Q37*34</f>
         <v>4179.28</v>
@@ -2495,7 +2486,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2511,27 +2502,27 @@
         <v>8</v>
       </c>
       <c r="G38" s="22">
-        <f>F38*$E38</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H38" s="22">
-        <f>(F38*$H$10)+F38</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I38" s="22">
-        <f>H38*$E38</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29">
-        <f t="shared" si="1"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28">
+        <f t="shared" si="5"/>
         <v>1.1053907141653056E-2</v>
       </c>
       <c r="L38" s="22">
-        <f>K38*$E$2</f>
+        <f t="shared" si="3"/>
         <v>187.91642140810194</v>
       </c>
-      <c r="M38" s="35"/>
+      <c r="M38" s="34"/>
       <c r="Q38" s="4">
         <v>8</v>
       </c>
@@ -2542,13 +2533,13 @@
         <f>Q38*R38</f>
         <v>800</v>
       </c>
-      <c r="T38" s="27">
+      <c r="T38" s="49">
         <v>1589</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -2564,27 +2555,27 @@
         <v>109</v>
       </c>
       <c r="G39" s="22">
-        <f>F39*$E39</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="H39" s="22">
-        <f>(F39*$H$10)+F39</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="I39" s="22">
-        <f>H39*$E39</f>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29">
-        <f t="shared" si="1"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28">
+        <f t="shared" si="5"/>
         <v>3.0121896961004577E-2</v>
       </c>
       <c r="L39" s="22">
-        <f>K39*$E$2</f>
+        <f t="shared" si="3"/>
         <v>512.07224833707778</v>
       </c>
-      <c r="M39" s="35"/>
+      <c r="M39" s="34"/>
       <c r="Q39" s="4">
         <v>950</v>
       </c>
@@ -2595,7 +2586,7 @@
         <f>Q39*R39</f>
         <v>950</v>
       </c>
-      <c r="T39" s="27"/>
+      <c r="T39" s="49"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
@@ -2606,10 +2597,10 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="28"/>
+      <c r="J40" s="27"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="36"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
@@ -2626,16 +2617,16 @@
         <f>SUM(I12:I39)</f>
         <v>7237.26</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="30">
+      <c r="J41" s="27"/>
+      <c r="K41" s="29">
         <f>SUM(K12:K39)</f>
         <v>1</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="30">
         <f>SUM(L12:L40)</f>
         <v>17000</v>
       </c>
-      <c r="M41" s="37"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
@@ -2703,86 +2694,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4683EB-D841-4308-BB4E-FB01603BE49F}">
-  <dimension ref="J3:L21"/>
+  <dimension ref="C3:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K6" t="s">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K9" t="s">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>74</v>
       </c>
     </row>
